--- a/results/standardized_assortativity/oh_burt.xlsx
+++ b/results/standardized_assortativity/oh_burt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/vincent_bazinet_mail_mcgill_ca/Documents/projects (current)/assortativity/git-hub repository/bazinet_assortativity/results/standardized_assortativity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2BB168DC5FA5BD6263493730583088B35299F3F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{671FEC24-7AE0-4086-B851-682D61FCAC24}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_AA73CA1FC55A505EEF0748D44C245E3FF403BBAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F2E3A42-6275-4932-B603-14B0F2C7134A}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oh_burt" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -402,12 +403,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
